--- a/Project/Sepiatoon2/メモ/仕様.xlsx
+++ b/Project/Sepiatoon2/メモ/仕様.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9B13B75F-4E53-4DF1-BB21-7A3FA68C8DC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FCF92158-5822-4ED8-91E9-168AC205AA46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scene遷移" sheetId="1" r:id="rId1"/>
     <sheet name="常に保持する情報" sheetId="2" r:id="rId2"/>
-    <sheet name="include順番" sheetId="3" r:id="rId3"/>
+    <sheet name="ID" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>State</t>
     <phoneticPr fontId="1"/>
@@ -291,6 +291,85 @@
   </si>
   <si>
     <t>コンフィグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ObjectMgr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EffectMgr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AudioMgr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obj1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obj1全て</t>
+    <rPh sb="4" eb="5">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理クラス番号</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被管理クラス番号256</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Obj2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0b0000</t>
+  </si>
+  <si>
+    <t>0b0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンス毎の番号4096</t>
+    <rPh sb="6" eb="7">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001～FFE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -496,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +626,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,14 +1313,226 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="13.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
